--- a/GSE107451/processed_data/DESeq_result/DESeq_DGRP-551_female_30_vs_3_DOWN0.05.xlsx
+++ b/GSE107451/processed_data/DESeq_result/DESeq_DGRP-551_female_30_vs_3_DOWN0.05.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -38,76 +38,367 @@
     <t xml:space="preserve">sig</t>
   </si>
   <si>
+    <t xml:space="preserve">mt:lrRNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hsromega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mt:ND5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mt:ND6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mt:CoIII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG11458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG40198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">betaTry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mt:ND4</t>
+  </si>
+  <si>
     <t xml:space="preserve">TM4SF</t>
   </si>
   <si>
-    <t xml:space="preserve">down</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atpalpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mt:ND5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mt:CoIII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsp83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsromega</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsp26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mt:lrRNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsp23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DnaJ-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsp70Bc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mt:Cyt-b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyt-c-p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mt:ND4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mt:ND6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mt:CoI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">levy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COX4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mt:CoII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATPsynG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsp68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dop2R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VGlut</t>
+    <t xml:space="preserve">Thd1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mt:ND3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG7582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mt:ND2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mt:srRNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsp29Fb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mlc2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPoCk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rab3-GEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GV1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR43887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG33229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG14984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cpr49Ae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snmp2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-2mu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mhc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG6749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG8740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG12814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cpr67B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG30197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG7203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow-c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GstT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG42784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG14438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG17919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMRFa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nahoda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG33970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG7409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mlc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cda5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cpr51A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG17777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hsp67Ba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buffy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ggt-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FASN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hel89B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG4721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG32444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG2781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG34330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG6746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG33056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l(3)mbt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG7768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR12842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mp20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG32645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG34165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG43394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG17121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wupA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oct-TyrR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG8306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG18180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG32694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mipp1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG4393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG2816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ovo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG6959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG8180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alphaTry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Act57B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG7695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyp4e1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l(2)34Fc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trissin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG6836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RhoGAP1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obp56e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG6398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR42765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usp1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31522</t>
   </si>
 </sst>
 </file>
@@ -470,22 +761,22 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>2.58655130721495</v>
+        <v>14520.5286777307</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.12868008919219</v>
+        <v>-3.26222643430706</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0295914882452509</v>
+        <v>0.200133444223473</v>
       </c>
       <c r="E2" t="n">
-        <v>-38.1420521954765</v>
+        <v>-16.300256296316</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000982791532432444</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000771786190419198</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -496,22 +787,22 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>8.77914153824486</v>
+        <v>17444.6561974312</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.24388034539634</v>
+        <v>-1.77277125314696</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0331297006690886</v>
+        <v>0.171633168246968</v>
       </c>
       <c r="E3" t="n">
-        <v>-37.5457767584641</v>
+        <v>-10.3288383664635</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.000000000000000000000000521887505547718</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.00000000000000000000136612752702208</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -522,22 +813,22 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>2.9243816420939</v>
+        <v>1918.61395381961</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.37255409840071</v>
+        <v>-1.61022591235177</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0330774659503319</v>
+        <v>0.21594399425642</v>
       </c>
       <c r="E4" t="n">
-        <v>-41.4951405425583</v>
+        <v>-7.45668300661202</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.0000000000000887278264879642</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.000000000174194905352496</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -548,22 +839,22 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>7.5378161539737</v>
+        <v>977.629200587039</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.64046622471205</v>
+        <v>-1.58555056147947</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0357526260030846</v>
+        <v>0.237468107774448</v>
       </c>
       <c r="E5" t="n">
-        <v>-45.8837967474197</v>
+        <v>-6.67689895851385</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.0000000000244051084540106</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.0000000319422194482242</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
@@ -574,22 +865,22 @@
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>4.22849277683299</v>
+        <v>178.839380328205</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.9827859561112</v>
+        <v>-1.87163929696135</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0399767841847261</v>
+        <v>0.344152274185057</v>
       </c>
       <c r="E6" t="n">
-        <v>-49.5984356057525</v>
+        <v>-5.43840455912529</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.0000000537597946336062</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.0000469084074730788</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
@@ -600,22 +891,22 @@
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>17.6203105504112</v>
+        <v>6746.89280933237</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.16834727364857</v>
+        <v>-1.18153877823912</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0396223314471559</v>
+        <v>0.222369776912679</v>
       </c>
       <c r="E7" t="n">
-        <v>-54.7253832485977</v>
+        <v>-5.3133964275329</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.000000107600603920008</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.0000844987542583824</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
@@ -626,22 +917,22 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>4.31296475466803</v>
+        <v>224.661091448388</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.26412051088977</v>
+        <v>-25.3253205053391</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0530752373775732</v>
+        <v>4.78501927252537</v>
       </c>
       <c r="E8" t="n">
-        <v>-42.6586977799645</v>
+        <v>-5.29262664640706</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.000000120571914817463</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.0000860773860965035</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
@@ -652,22 +943,22 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>14.0420309494571</v>
+        <v>186.784345452131</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.33802934737043</v>
+        <v>-25.0746801808085</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0362892257451602</v>
+        <v>4.78507469683754</v>
       </c>
       <c r="E9" t="n">
-        <v>-91.9840332447879</v>
+        <v>-5.24018573782774</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.000000160415054650583</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.000104978285347586</v>
       </c>
       <c r="H9" t="s">
         <v>9</v>
@@ -678,22 +969,22 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>3.17102025737753</v>
+        <v>150.02162139694</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.91685811580688</v>
+        <v>-24.6632782427137</v>
       </c>
       <c r="D10" t="n">
-        <v>0.052899511863404</v>
+        <v>4.78515523009235</v>
       </c>
       <c r="E10" t="n">
-        <v>-36.2358375018006</v>
+        <v>-5.1541229190673</v>
       </c>
       <c r="F10" t="n">
-        <v>1.66090368649548e-287</v>
+        <v>0.000000254820761179477</v>
       </c>
       <c r="G10" t="n">
-        <v>9.11467034177907e-285</v>
+        <v>0.000142936245538745</v>
       </c>
       <c r="H10" t="s">
         <v>9</v>
@@ -704,22 +995,22 @@
         <v>18</v>
       </c>
       <c r="B11" t="n">
-        <v>1.78087667389843</v>
+        <v>90.9784585204217</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.29992915597388</v>
+        <v>-24.0919167952721</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0370084344545589</v>
+        <v>4.78542097314189</v>
       </c>
       <c r="E11" t="n">
-        <v>-35.1252133502162</v>
+        <v>-5.03444042446583</v>
       </c>
       <c r="F11" t="n">
-        <v>2.77916139001493e-270</v>
+        <v>0.000000479246688375673</v>
       </c>
       <c r="G11" t="n">
-        <v>1.37262781052838e-267</v>
+        <v>0.000221383779047892</v>
       </c>
       <c r="H11" t="s">
         <v>9</v>
@@ -730,22 +1021,22 @@
         <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>2.25187120641952</v>
+        <v>1349.98296706121</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.51486707684956</v>
+        <v>-1.24499802984743</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0437060718854828</v>
+        <v>0.257324583560988</v>
       </c>
       <c r="E12" t="n">
-        <v>-34.6603346285331</v>
+        <v>-4.8382397539268</v>
       </c>
       <c r="F12" t="n">
-        <v>3.12134252430377e-263</v>
+        <v>0.00000130994070459024</v>
       </c>
       <c r="G12" t="n">
-        <v>1.40148279341239e-260</v>
+        <v>0.00048985544538796</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
@@ -756,22 +1047,22 @@
         <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>14.3471148254479</v>
+        <v>1502.39409888347</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.28212846383739</v>
+        <v>-1.26725363112741</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0375132876830734</v>
+        <v>0.261457266409265</v>
       </c>
       <c r="E13" t="n">
-        <v>-34.1779818039224</v>
+        <v>-4.84688625614157</v>
       </c>
       <c r="F13" t="n">
-        <v>5.13631803902181e-256</v>
+        <v>0.00000125414282987845</v>
       </c>
       <c r="G13" t="n">
-        <v>2.11402289956073e-253</v>
+        <v>0.00048985544538796</v>
       </c>
       <c r="H13" t="s">
         <v>9</v>
@@ -782,22 +1073,22 @@
         <v>21</v>
       </c>
       <c r="B14" t="n">
-        <v>3.96894779722486</v>
+        <v>719.744803124671</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.21073569604416</v>
+        <v>-1.05006974744614</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0356817226318628</v>
+        <v>0.222226207968177</v>
       </c>
       <c r="E14" t="n">
-        <v>-33.9315371215571</v>
+        <v>-4.72522911247493</v>
       </c>
       <c r="F14" t="n">
-        <v>2.28378651409521e-252</v>
+        <v>0.0000022985605430654</v>
       </c>
       <c r="G14" t="n">
-        <v>8.67663199470481e-250</v>
+        <v>0.00078480851933446</v>
       </c>
       <c r="H14" t="s">
         <v>9</v>
@@ -808,22 +1099,22 @@
         <v>22</v>
       </c>
       <c r="B15" t="n">
-        <v>2.29658101734475</v>
+        <v>346.129901161551</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.15097831697338</v>
+        <v>-1.89040134963975</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0339714213357767</v>
+        <v>0.403049384028393</v>
       </c>
       <c r="E15" t="n">
-        <v>-33.880781895965</v>
+        <v>-4.69024745986606</v>
       </c>
       <c r="F15" t="n">
-        <v>1.27846333692819e-251</v>
+        <v>0.00000272874831174181</v>
       </c>
       <c r="G15" t="n">
-        <v>4.51023601506311e-249</v>
+        <v>0.000857154419684338</v>
       </c>
       <c r="H15" t="s">
         <v>9</v>
@@ -834,22 +1125,22 @@
         <v>23</v>
       </c>
       <c r="B16" t="n">
-        <v>1.98553464149679</v>
+        <v>425.57553063865</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.0794461077992</v>
+        <v>-1.16057316533557</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0324190007298638</v>
+        <v>0.259159655242015</v>
       </c>
       <c r="E16" t="n">
-        <v>-33.2967112957567</v>
+        <v>-4.4782169672659</v>
       </c>
       <c r="F16" t="n">
-        <v>4.30826857332684e-243</v>
+        <v>0.00000752690803686307</v>
       </c>
       <c r="G16" t="n">
-        <v>1.41856923224408e-240</v>
+        <v>0.00190673576817696</v>
       </c>
       <c r="H16" t="s">
         <v>9</v>
@@ -860,22 +1151,22 @@
         <v>24</v>
       </c>
       <c r="B17" t="n">
-        <v>13.2185942726075</v>
+        <v>177.551490465259</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.11905683464923</v>
+        <v>-1.92829550581782</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0370235912102774</v>
+        <v>0.440564805581055</v>
       </c>
       <c r="E17" t="n">
-        <v>-30.2255075228518</v>
+        <v>-4.37687141911987</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000109504661954116</v>
+        <v>0.0000120394949115857</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000318143250230222</v>
+        <v>0.00286503495577826</v>
       </c>
       <c r="H17" t="s">
         <v>9</v>
@@ -886,22 +1177,22 @@
         <v>25</v>
       </c>
       <c r="B18" t="n">
-        <v>3.93674505991495</v>
+        <v>123.889958095264</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.07614549532836</v>
+        <v>-1.91173813750324</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0365848619876759</v>
+        <v>0.438964603846679</v>
       </c>
       <c r="E18" t="n">
-        <v>-29.4150486529339</v>
+        <v>-4.35510772565836</v>
       </c>
       <c r="F18" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000352603448884025</v>
+        <v>0.0000133001494080411</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000829289730494381</v>
+        <v>0.00307194333239256</v>
       </c>
       <c r="H18" t="s">
         <v>9</v>
@@ -912,22 +1203,22 @@
         <v>26</v>
       </c>
       <c r="B19" t="n">
-        <v>4.03982504294839</v>
+        <v>449.456230874733</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.014439856186</v>
+        <v>-1.01086280953128</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0355741361308228</v>
+        <v>0.249692476035745</v>
       </c>
       <c r="E19" t="n">
-        <v>-28.5162189871717</v>
+        <v>-4.04843119656744</v>
       </c>
       <c r="F19" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000073733240462234</v>
+        <v>0.0000515620869248984</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000158334119409989</v>
+        <v>0.0109437045573305</v>
       </c>
       <c r="H19" t="s">
         <v>9</v>
@@ -938,22 +1229,22 @@
         <v>27</v>
       </c>
       <c r="B20" t="n">
-        <v>9.97738923015669</v>
+        <v>27.0735472677903</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.03877486496933</v>
+        <v>-6.03561688261956</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0367839745175376</v>
+        <v>1.5451049903849</v>
       </c>
       <c r="E20" t="n">
-        <v>-28.2398756141502</v>
+        <v>-3.90628269287775</v>
       </c>
       <c r="F20" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000189520599178384</v>
+        <v>0.0000937268546369236</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000374416895736816</v>
+        <v>0.0171838909068394</v>
       </c>
       <c r="H20" t="s">
         <v>9</v>
@@ -964,22 +1255,22 @@
         <v>28</v>
       </c>
       <c r="B21" t="n">
-        <v>3.68087838910081</v>
+        <v>292.760274114074</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.00078651303272</v>
+        <v>-1.09860301828016</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0354778219460423</v>
+        <v>0.298380112587736</v>
       </c>
       <c r="E21" t="n">
-        <v>-28.2087923704787</v>
+        <v>-3.68189088995376</v>
       </c>
       <c r="F21" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000456185770084639</v>
+        <v>0.000231510493964063</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000866577507095396</v>
+        <v>0.0324652126624962</v>
       </c>
       <c r="H21" t="s">
         <v>9</v>
@@ -990,22 +1281,22 @@
         <v>29</v>
       </c>
       <c r="B22" t="n">
-        <v>1.95314349294222</v>
+        <v>24.5563504524174</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.15940128317397</v>
+        <v>-5.55663227892003</v>
       </c>
       <c r="D22" t="n">
-        <v>0.044431913329072</v>
+        <v>1.52469007788926</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.0938860450865</v>
+        <v>-3.64443394726649</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000427747885479958</v>
+        <v>0.0002679809454847</v>
       </c>
       <c r="G22" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000555959685890925</v>
+        <v>0.035668718049006</v>
       </c>
       <c r="H22" t="s">
         <v>9</v>
@@ -1016,22 +1307,22 @@
         <v>30</v>
       </c>
       <c r="B23" t="n">
-        <v>11.2903410856234</v>
+        <v>26.7376370914478</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.23488441859816</v>
+        <v>-4.32859584789006</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0561816302517888</v>
+        <v>1.22221490563341</v>
       </c>
       <c r="E23" t="n">
-        <v>-21.9802168976548</v>
+        <v>-3.54159962207857</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000445329429400988</v>
+        <v>0.00039770864473192</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000023398745232037</v>
+        <v>0.045263854885214</v>
       </c>
       <c r="H23" t="s">
         <v>9</v>
@@ -1042,24 +1333,2546 @@
         <v>31</v>
       </c>
       <c r="B24" t="n">
-        <v>4.2880150341443</v>
+        <v>20.2128256563314</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.02579094869895</v>
+        <v>-6.08879746457571</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0579811702541954</v>
+        <v>1.7261897393943</v>
       </c>
       <c r="E24" t="n">
-        <v>-17.6917944946916</v>
+        <v>-3.52730486436108</v>
       </c>
       <c r="F24" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000485057970324571</v>
+        <v>0.000419813080863218</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000127430921033673</v>
+        <v>0.0464336918875895</v>
       </c>
       <c r="H24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="n">
+        <v>510.856860259755</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.0397224239169</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.299027524261396</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-3.47701244721547</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.000507034278279218</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0533677728208444</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="n">
+        <v>174.058885696473</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.14661014280026</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.335865670137817</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-3.41389503229003</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.000640412439165857</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0613312059118229</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="n">
+        <v>241.071071368788</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.16243215616851</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.347977975584514</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-3.3405337053758</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.000836175303461407</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0723075398058975</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="n">
+        <v>21.717209211656</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-6.17933702027598</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.88823515455433</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-3.27254632738498</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.00106583403904569</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0836999470862578</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="n">
+        <v>10.0152235886499</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-5.04301010879086</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.57222414680816</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-3.20756434063738</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.00133864113244706</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0973365630843219</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="n">
+        <v>159.604031265856</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.14058342305369</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.356579812416366</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-3.19867637857711</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.00138060051926013</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0989606167868509</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="n">
+        <v>19.4891653295232</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-6.02164460577876</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.90198466906836</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-3.16597957055475</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.00154561648524473</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.106471282970411</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="n">
+        <v>345.590703661353</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-1.00662054616566</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.331151791870603</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-3.03975569777075</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.00236770121918803</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.143436442643162</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="n">
+        <v>21.8242002633896</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-3.95153084103552</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.31065139036118</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-3.01493659572328</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.00257032981475311</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.150632836084002</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="n">
+        <v>373.65219810731</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-9.97865823806906</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3.31926322713859</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-3.00628710506677</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0026445916855931</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.153836877829352</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="n">
+        <v>17.4720451346456</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-4.56152981832795</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.53217700625758</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-2.97715590280899</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.00290936024490564</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.1631943285946</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="n">
+        <v>19.2000123962831</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-5.57637419143893</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.87469481254233</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-2.97455039301925</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.00293418257169997</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.163419402379857</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="n">
+        <v>86.3372447765021</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-1.98323885641157</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.67339758362864</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-2.94512321491381</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.00322826074677242</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.171294132732458</v>
+      </c>
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="n">
+        <v>14.0150001055161</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-6.16409564184817</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.10306841982856</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-2.93100100012469</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.00337871693719022</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.175715656342747</v>
+      </c>
+      <c r="H38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="n">
+        <v>14.0150001055161</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-6.16409564184817</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.10306841982856</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-2.93100100012469</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.00337871693719022</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.175715656342747</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="n">
+        <v>25.1472313619832</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-5.26777215556641</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.83999960165028</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-2.86292026957059</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.00419756174033446</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.207031028384375</v>
+      </c>
+      <c r="H40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="n">
+        <v>16.2456829661802</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-4.70992556614968</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.65379803915919</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-2.84794482435368</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.00440025526922548</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.211756883431668</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="n">
+        <v>25.2032250299452</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-4.05601870214176</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.43060539482599</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-2.83517643426411</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.00458003837736983</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.212822730044292</v>
+      </c>
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="n">
+        <v>279.094001540074</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-1.00107302101499</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.353673342829933</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-2.83050176472126</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.00464750548030363</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.212898015210701</v>
+      </c>
+      <c r="H43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="n">
+        <v>12.6269014880181</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-5.38396990231933</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.90603297448924</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-2.82469924412618</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.00473250145017909</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.212898015210701</v>
+      </c>
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="n">
+        <v>11.7869562233833</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-5.90987559660025</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.13758080064552</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-2.76474956867855</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.00569665117177225</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.238686635221574</v>
+      </c>
+      <c r="H45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="n">
+        <v>235.805407091658</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-7.29446193345913</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.64158053291412</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-2.76140054886461</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0057554042088626</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.238686635221574</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="n">
+        <v>398.047125151795</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-1.53230951269147</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.55996334732659</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-2.73644609063631</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.00621067701872922</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.250115110913234</v>
+      </c>
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="n">
+        <v>650.888975280957</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-1.34399643826625</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.49789957737531</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-2.69933235402842</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.00694787514477145</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.266154456155562</v>
+      </c>
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="n">
+        <v>161.05698475581</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-1.04450484841097</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.395882500250937</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-2.63842136934292</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.00832930141501012</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.284166983409998</v>
+      </c>
+      <c r="H49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="n">
+        <v>72.3011065417349</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-5.01550391143545</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.91691973461756</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-2.61643918671226</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.00888521902021463</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.293368799760497</v>
+      </c>
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="n">
+        <v>150.081926424174</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-10.7487257790311</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4.11080609946624</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-2.61474891273192</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.00892930708647879</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.293368799760497</v>
+      </c>
+      <c r="H51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="n">
+        <v>73.1369469265549</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-1.28724392930389</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.493442186817204</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-2.60870262756993</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.00908861853860059</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.294929427205084</v>
+      </c>
+      <c r="H52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="n">
+        <v>72.2324658388111</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-2.4343777875355</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.934132894226335</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-2.60602940179266</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0091598598442002</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.296018022043227</v>
+      </c>
+      <c r="H53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="n">
+        <v>15.4728491585189</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-4.67343972386157</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.81574212526191</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-2.57384551409658</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0100575169616176</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.315926722798332</v>
+      </c>
+      <c r="H54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="n">
+        <v>70.0750005275805</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-7.02371777936998</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.7441238719207</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-2.55954836851219</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0104808269871517</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.324039111535837</v>
+      </c>
+      <c r="H55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="n">
+        <v>93.9580477671213</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-1.16967786370673</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.460047195900576</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-2.54251710287462</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0110057214882068</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.331141497497656</v>
+      </c>
+      <c r="H56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="n">
+        <v>156.744805197584</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-1.00460803295828</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.399354388845755</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-2.51558029914703</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0118836603064465</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.352159941081223</v>
+      </c>
+      <c r="H57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="n">
+        <v>53.0892752458873</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-6.84745319140791</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.73402635703109</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-2.50453078983614</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.012261393266982</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.360631915077189</v>
+      </c>
+      <c r="H58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="n">
+        <v>184.601586140473</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-2.97200725832692</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.20282569595426</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-2.47085447901832</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0134790656185675</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.379218605366958</v>
+      </c>
+      <c r="H59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="n">
+        <v>26.0938860054793</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-4.11811195800724</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.67283224947633</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-2.46176026274983</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0138257046745105</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.379218605366958</v>
+      </c>
+      <c r="H60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="n">
+        <v>114.652831118799</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-5.15276725285125</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2.08613923664995</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-2.47000160024116</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.0135112447733653</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.379218605366958</v>
+      </c>
+      <c r="H61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="n">
+        <v>203.767017687594</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-5.18375664861688</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2.10645259810544</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-2.46089404208725</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0138591289622204</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.379218605366958</v>
+      </c>
+      <c r="H62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="n">
+        <v>6.97460406890414</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-5.14038146175006</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2.09710773097421</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-2.45117663047387</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0142390062321068</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.38392284769193</v>
+      </c>
+      <c r="H63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="n">
+        <v>39.637504750043</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-7.65327839982809</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3.12647420531764</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-2.44789430432884</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0143693801390731</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.384348958686756</v>
+      </c>
+      <c r="H64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="n">
+        <v>9.5602318305162</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-4.54298773901817</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.88012252636782</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-2.41632535928108</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.01567804509266</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.401151277137377</v>
+      </c>
+      <c r="H65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="n">
+        <v>36.2284055293136</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-1.74584980490979</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.725809117125909</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-2.40538423080587</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.016155469792234</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.40404109642807</v>
+      </c>
+      <c r="H66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="n">
+        <v>42.2082605658606</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-3.27516820694138</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.36441833774755</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-2.40041350686343</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.016376560452786</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.404906988070538</v>
+      </c>
+      <c r="H67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="n">
+        <v>39.7424140257344</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-3.47157734697018</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.44997415304151</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-2.39423395216259</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.016655121479434</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.405753718800767</v>
+      </c>
+      <c r="H68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="n">
+        <v>42.3399218631345</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-6.17051391477605</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2.58037369129744</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-2.39132569657903</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0167876531173027</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.405753718800767</v>
+      </c>
+      <c r="H69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="n">
+        <v>70.3936431185876</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-2.06649736243964</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.868484443326599</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-2.37942933614819</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0173394671772188</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.410286171214838</v>
+      </c>
+      <c r="H70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="n">
+        <v>156.557612672818</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-1.23270816706262</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.519880324059388</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-2.37113833706428</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0177333923790415</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.415030579862459</v>
+      </c>
+      <c r="H71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="n">
+        <v>18.663396270112</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-3.76816188096623</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.60202797101615</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-2.35211990623117</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.0186667565119192</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.427376206670851</v>
+      </c>
+      <c r="H72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="n">
+        <v>8.02179622586934</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-4.62521340418627</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.97334269897897</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-2.3438470198711</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0190859979961206</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.431937585773877</v>
+      </c>
+      <c r="H73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="n">
+        <v>11.5186481602978</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-4.47644346497119</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.93539025413482</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-2.31294099751075</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0207258833520131</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.455911378048625</v>
+      </c>
+      <c r="H74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" t="n">
+        <v>139.427152266916</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-1.18326075107272</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.521824987242461</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-2.26754329516791</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0233570572027049</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.484944526608507</v>
+      </c>
+      <c r="H75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" t="n">
+        <v>57.8572799919375</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-1.26145850089477</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.557476453750459</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-2.26280140158069</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0236479344825994</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.484944526608507</v>
+      </c>
+      <c r="H76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="n">
+        <v>30.1005416415461</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-3.26830417305006</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.44632704154491</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-2.25972693531264</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.023838203517054</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.484944526608507</v>
+      </c>
+      <c r="H77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="n">
+        <v>39.6099912149574</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-6.19207635273485</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2.73253863650343</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-2.26605262594137</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0234481613180301</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.484944526608507</v>
+      </c>
+      <c r="H78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="n">
+        <v>20.215870315174</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-3.7332414237022</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.6560110607046</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-2.25435778316226</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.0241736688924784</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.488357511537253</v>
+      </c>
+      <c r="H79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" t="n">
+        <v>101.39107289385</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-10.1802777173497</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4.53221528346303</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-2.24620347459995</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0246909777896999</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.490881641981047</v>
+      </c>
+      <c r="H80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="n">
+        <v>136.000269096198</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-1.62745295396213</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.726222296525055</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-2.24098456044304</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0250270751264465</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.492375756124163</v>
+      </c>
+      <c r="H81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" t="n">
+        <v>52.5438993339487</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-1.53135493190762</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.692591586793912</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-2.21105043882563</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.0270323444340461</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.515254856409136</v>
+      </c>
+      <c r="H82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" t="n">
+        <v>56.4228582837941</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-1.17432928920231</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.531950752512792</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-2.20759023961352</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0272728501473092</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.518580368539514</v>
+      </c>
+      <c r="H83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" t="n">
+        <v>42.0578570325061</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-4.86549902515539</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2.21174351028388</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-2.19984776830243</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.0278176975507687</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.520996648405896</v>
+      </c>
+      <c r="H84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" t="n">
+        <v>61.3988862261427</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-1.2091935270727</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.554116915571895</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-2.1821992671433</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.0290948293753246</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.528236783418773</v>
+      </c>
+      <c r="H85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" t="n">
+        <v>7.70352859540556</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-4.22551263114241</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.93191281366639</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-2.18721704274181</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.0287266833192342</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.528236783418773</v>
+      </c>
+      <c r="H86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" t="n">
+        <v>20.9497911258658</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-3.30856223802399</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1.52430230129236</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-2.17054204747895</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.0299658068942127</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.531199732596506</v>
+      </c>
+      <c r="H87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" t="n">
+        <v>7.42681294044259</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-6.41194368675623</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2.96725388339871</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-2.1609016075874</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.0307029407064828</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.535800429706688</v>
+      </c>
+      <c r="H88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" t="n">
+        <v>7.42681294044259</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-6.41194368675623</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2.96725388339871</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-2.1609016075874</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.0307029407064828</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.535800429706688</v>
+      </c>
+      <c r="H89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" t="n">
+        <v>35.636888584542</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-2.43108270752472</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.1298840959736</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-2.15162131778649</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.031427191729688</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.543254527759587</v>
+      </c>
+      <c r="H90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" t="n">
+        <v>19.9914715332483</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-3.37779289960675</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1.57986465710651</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-2.13802675084402</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.0325145721560226</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.551483661212193</v>
+      </c>
+      <c r="H91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" t="n">
+        <v>6.13597829353505</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-4.32058572881592</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2.02648272356774</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-2.13206146717564</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.0330017937989687</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.557339971404949</v>
+      </c>
+      <c r="H92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" t="n">
+        <v>112.479456740264</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-1.08076999176698</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.507471826177563</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-2.1297142738104</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.0331952098324019</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.558244335138608</v>
+      </c>
+      <c r="H93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" t="n">
+        <v>40.2818734414508</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-2.45095895162305</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.15779086046388</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-2.11692718894072</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.03426602773653</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.567702775980949</v>
+      </c>
+      <c r="H94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" t="n">
+        <v>179.802683480739</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-3.46627132396117</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.64323218830822</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-2.10942272712528</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.0349081094717427</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.56934430583412</v>
+      </c>
+      <c r="H95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" t="n">
+        <v>11.7443664314891</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-4.30211037574154</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2.03524017337418</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-2.11380967810259</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.0345315260275438</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.56934430583412</v>
+      </c>
+      <c r="H96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" t="n">
+        <v>60.7249300975428</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-4.33716689032187</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2.05732857756169</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-2.10815469032283</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.0350176110681115</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.56934430583412</v>
+      </c>
+      <c r="H97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" t="n">
+        <v>7.05547229342046</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-6.33733148258984</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2.99882276650891</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-2.11327309948612</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.0345773997829105</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.56934430583412</v>
+      </c>
+      <c r="H98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" t="n">
+        <v>29.7756827080095</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-6.30455729122679</v>
+      </c>
+      <c r="D99" t="n">
+        <v>3.01028402329343</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-2.0943396843761</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.0362297315903132</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.580170748436953</v>
+      </c>
+      <c r="H99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" t="n">
+        <v>25.4204079868299</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-3.60815691733461</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1.73488088138315</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-2.07977213655036</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.0375464379494333</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.582915293502715</v>
+      </c>
+      <c r="H100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>108</v>
+      </c>
+      <c r="B101" t="n">
+        <v>70.8304263005011</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-1.211941576038</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.585592727593198</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-2.0695980652272</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.0384899994069471</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.589446954032399</v>
+      </c>
+      <c r="H101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" t="n">
+        <v>69.2861904115257</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-5.21718579077379</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2.52782878207645</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-2.06389998712183</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.0390271999776194</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.590714662683959</v>
+      </c>
+      <c r="H102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" t="n">
+        <v>6.68413164639833</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-6.25867561915696</v>
+      </c>
+      <c r="D103" t="n">
+        <v>3.03324011447304</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-2.06336306489349</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.0390781463932659</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.590714662683959</v>
+      </c>
+      <c r="H103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104" t="n">
+        <v>6.68413164639833</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-6.25867561915696</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3.03324011447304</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-2.06336306489349</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.0390781463932659</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.590714662683959</v>
+      </c>
+      <c r="H104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" t="n">
+        <v>133.487788435988</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-1.05042699744439</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.510946445562981</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-2.05584559118908</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.0397974019326607</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.593035635384165</v>
+      </c>
+      <c r="H105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" t="n">
+        <v>17.5392943564275</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-3.29183787118274</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.61222252618638</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-2.04180118917542</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.0411712562613541</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.597098460663019</v>
+      </c>
+      <c r="H106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107" t="n">
+        <v>74.639470051448</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-9.73700386157371</v>
+      </c>
+      <c r="D107" t="n">
+        <v>4.77900739841004</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-2.03745318846193</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.0416046484277789</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.600590632542918</v>
+      </c>
+      <c r="H107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" t="n">
+        <v>126.646890326449</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-4.92405531302454</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2.42591011942044</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-2.02977648413492</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.0423792643369841</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.607307231456818</v>
+      </c>
+      <c r="H108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>116</v>
+      </c>
+      <c r="B109" t="n">
+        <v>6.73644851943561</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-3.69276616821042</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.83225873220299</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-2.01541742075394</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.04386093062086</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.614424835194259</v>
+      </c>
+      <c r="H109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>117</v>
+      </c>
+      <c r="B110" t="n">
+        <v>6.3127909993762</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-6.17551431477538</v>
+      </c>
+      <c r="D110" t="n">
+        <v>3.07065277783717</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-2.01114054944536</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.0443106131563427</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.614424835194259</v>
+      </c>
+      <c r="H110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>118</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6.3127909993762</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-6.17551431477538</v>
+      </c>
+      <c r="D111" t="n">
+        <v>3.07065277783717</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-2.01114054944536</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.0443106131563427</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.614424835194259</v>
+      </c>
+      <c r="H111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" t="n">
+        <v>6.3127909993762</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-6.17551431477538</v>
+      </c>
+      <c r="D112" t="n">
+        <v>3.07065277783717</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-2.01114054944536</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.0443106131563427</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.614424835194259</v>
+      </c>
+      <c r="H112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" t="n">
+        <v>226.417378998555</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-7.0750842157203</v>
+      </c>
+      <c r="D113" t="n">
+        <v>3.5224096762698</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-2.00859209063176</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.0445804108043768</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.614424835194259</v>
+      </c>
+      <c r="H113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>121</v>
+      </c>
+      <c r="B114" t="n">
+        <v>26.2943056100385</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-2.07642358824642</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.03746453613392</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-2.00144054656957</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.0453449348131461</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.616653667289764</v>
+      </c>
+      <c r="H114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>122</v>
+      </c>
+      <c r="B115" t="n">
+        <v>52.5522396820356</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-9.23151153972552</v>
+      </c>
+      <c r="D115" t="n">
+        <v>4.6156498652524</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-2.00004588936052</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.0454953089018904</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.616653667289764</v>
+      </c>
+      <c r="H115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" t="n">
+        <v>44.4362951031991</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-1.27540176545814</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.642061933994738</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-1.98641548101587</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.0469872090632683</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.628604008132616</v>
+      </c>
+      <c r="H116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>124</v>
+      </c>
+      <c r="B117" t="n">
+        <v>63.127909993762</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-9.49529068073337</v>
+      </c>
+      <c r="D117" t="n">
+        <v>4.77915799931681</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-1.98681246405554</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.0469431828731278</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.628604008132616</v>
+      </c>
+      <c r="H117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>125</v>
+      </c>
+      <c r="B118" t="n">
+        <v>7.13766000720245</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-5.16487648714475</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2.60982538211057</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-1.97901228279415</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.0478146233742645</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.633201074802866</v>
+      </c>
+      <c r="H118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" t="n">
+        <v>7.13766000720245</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-5.16487648714475</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2.60982538211057</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-1.97901228279415</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.0478146233742645</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.633201074802866</v>
+      </c>
+      <c r="H119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>127</v>
+      </c>
+      <c r="B120" t="n">
+        <v>63.598228705477</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-1.0102099813475</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.512738131935576</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-1.97022596609691</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.0488124788969309</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.641394904077177</v>
+      </c>
+      <c r="H120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>128</v>
+      </c>
+      <c r="B121" t="n">
+        <v>183.92205621686</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-1.30562590444591</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.66589796755147</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-1.96069963878512</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.0499140712436684</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.650041793493413</v>
+      </c>
+      <c r="H121" t="s">
         <v>9</v>
       </c>
     </row>
